--- a/Name Scanning/nameSubcases_v0.1.xlsx
+++ b/Name Scanning/nameSubcases_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="200">
   <si>
     <t>Subcase</t>
   </si>
@@ -611,16 +611,16 @@
     <t>Tested</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>kinda</t>
-  </si>
-  <si>
-    <t>later</t>
+    <t>LATER</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>??</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,7 +1037,7 @@
         <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1054,7 +1054,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1071,7 +1071,7 @@
         <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1087,6 +1087,9 @@
       <c r="D5" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1101,6 +1104,9 @@
       <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -1116,7 +1122,7 @@
         <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1133,7 +1139,7 @@
         <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1150,7 +1156,7 @@
         <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1167,7 +1173,7 @@
         <v>113</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1197,6 +1203,9 @@
       <c r="D12" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -1211,6 +1220,9 @@
       <c r="D13" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
@@ -1225,6 +1237,9 @@
       <c r="D14" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -1253,6 +1268,9 @@
       <c r="D16" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -1284,9 +1302,7 @@
       <c r="D18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
@@ -1301,6 +1317,9 @@
       <c r="D19" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -1316,7 +1335,7 @@
         <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1333,7 +1352,7 @@
         <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1350,7 +1369,7 @@
         <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1367,7 +1386,7 @@
         <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1384,7 +1403,7 @@
         <v>127</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1401,7 +1420,7 @@
         <v>128</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1418,7 +1437,7 @@
         <v>129</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1435,7 +1454,7 @@
         <v>130</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1452,7 +1471,7 @@
         <v>131</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1469,7 +1488,7 @@
         <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1486,7 +1505,7 @@
         <v>133</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1503,7 +1522,7 @@
         <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1520,7 +1539,7 @@
         <v>135</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1537,7 +1556,7 @@
         <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1554,7 +1573,7 @@
         <v>137</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1571,7 +1590,7 @@
         <v>138</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1588,7 +1607,7 @@
         <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1605,7 +1624,7 @@
         <v>140</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1622,7 +1641,7 @@
         <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1639,7 +1658,7 @@
         <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1656,7 +1675,7 @@
         <v>143</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1673,7 +1692,7 @@
         <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1690,7 +1709,7 @@
         <v>145</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1707,7 +1726,7 @@
         <v>146</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1724,7 +1743,7 @@
         <v>147</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1741,7 +1760,7 @@
         <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1758,7 +1777,7 @@
         <v>149</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1775,7 +1794,7 @@
         <v>150</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1792,7 +1811,7 @@
         <v>151</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1809,7 +1828,7 @@
         <v>152</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1826,7 +1845,7 @@
         <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1843,7 +1862,7 @@
         <v>154</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1860,7 +1879,7 @@
         <v>155</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1877,7 +1896,7 @@
         <v>156</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1894,7 +1913,7 @@
         <v>157</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1911,7 +1930,7 @@
         <v>158</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1928,7 +1947,7 @@
         <v>159</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1945,7 +1964,7 @@
         <v>160</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1962,7 +1981,7 @@
         <v>161</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1979,7 +1998,7 @@
         <v>162</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1996,7 +2015,7 @@
         <v>163</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2013,7 +2032,7 @@
         <v>164</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2030,7 +2049,7 @@
         <v>165</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2047,7 +2066,7 @@
         <v>166</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2064,7 +2083,7 @@
         <v>167</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2081,7 +2100,7 @@
         <v>168</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2098,7 +2117,7 @@
         <v>169</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2115,7 +2134,7 @@
         <v>170</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2131,7 +2150,9 @@
       <c r="D68" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
@@ -2146,6 +2167,9 @@
       <c r="D69" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="E69" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
@@ -2160,6 +2184,9 @@
       <c r="D70" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="E70" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
@@ -2174,6 +2201,9 @@
       <c r="D71" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="E71" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
@@ -2189,7 +2219,7 @@
         <v>175</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2206,7 +2236,7 @@
         <v>176</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2223,7 +2253,7 @@
         <v>177</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2240,7 +2270,7 @@
         <v>178</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2257,7 +2287,7 @@
         <v>179</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2274,7 +2304,7 @@
         <v>180</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2304,6 +2334,9 @@
       <c r="D79" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="E79" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
@@ -2318,6 +2351,9 @@
       <c r="D80" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
@@ -2333,7 +2369,7 @@
         <v>184</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2350,7 +2386,7 @@
         <v>185</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2367,7 +2403,7 @@
         <v>186</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2383,6 +2419,9 @@
       <c r="D84" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E84" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
@@ -2397,6 +2436,9 @@
       <c r="D85" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
@@ -2411,6 +2453,9 @@
       <c r="D86" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="E86" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
@@ -2425,6 +2470,9 @@
       <c r="D87" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="E87" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
@@ -2440,7 +2488,7 @@
         <v>191</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2457,7 +2505,7 @@
         <v>192</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
